--- a/sample.xlsx
+++ b/sample.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
   <si>
     <t>o1</t>
   </si>
@@ -49,6 +50,89 @@
   </si>
   <si>
     <t>d5</t>
+  </si>
+  <si>
+    <t>d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o7</t>
+  </si>
+  <si>
+    <t>o7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o8</t>
+  </si>
+  <si>
+    <t>o8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o9</t>
+  </si>
+  <si>
+    <t>o9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o10</t>
+  </si>
+  <si>
+    <t>o10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d11</t>
+  </si>
+  <si>
+    <t>d11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d12</t>
+  </si>
+  <si>
+    <t>d13</t>
+  </si>
+  <si>
+    <t>d14</t>
+  </si>
+  <si>
+    <t>d15</t>
+  </si>
+  <si>
+    <t>d11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -373,9 +457,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f ca="1">RANDBETWEEN(1,15)</f>
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1">
+        <f ca="1">RANDBETWEEN(1,15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C25" ca="1" si="0">RANDBETWEEN(1,15)</f>
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I25" ca="1" si="1">RANDBETWEEN(1,15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
@@ -383,302 +1033,302 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C1">
-        <f ca="1">RANDBETWEEN(1,15)</f>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(5,20)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C25" ca="1" si="0">RANDBETWEEN(1,15)</f>
-        <v>4</v>
+        <f t="shared" ref="C2:C25" ca="1" si="0">RANDBETWEEN(5,20)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="39">
   <si>
     <t>o1</t>
   </si>
@@ -132,6 +133,28 @@
   </si>
   <si>
     <t>o7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o16</t>
+  </si>
+  <si>
+    <t>o16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d17</t>
+  </si>
+  <si>
+    <t>d17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +497,7 @@
       </c>
       <c r="C1">
         <f ca="1">RANDBETWEEN(1,15)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -484,7 +507,7 @@
       </c>
       <c r="I1">
         <f ca="1">RANDBETWEEN(1,15)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -496,7 +519,7 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C25" ca="1" si="0">RANDBETWEEN(1,15)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -506,7 +529,7 @@
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I25" ca="1" si="1">RANDBETWEEN(1,15)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -518,7 +541,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -528,7 +551,7 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -540,7 +563,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -550,7 +573,7 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -562,7 +585,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -572,7 +595,7 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -584,7 +607,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -594,7 +617,7 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -606,7 +629,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -616,7 +639,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -628,7 +651,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -638,7 +661,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -650,7 +673,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -660,7 +683,7 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -682,7 +705,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -694,7 +717,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -704,7 +727,7 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -716,7 +739,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -738,7 +761,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -748,7 +771,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -760,7 +783,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -770,7 +793,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -782,7 +805,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -792,7 +815,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -804,7 +827,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -814,7 +837,7 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -826,7 +849,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -836,7 +859,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -848,7 +871,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -858,7 +881,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -870,7 +893,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -880,7 +903,7 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -892,7 +915,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
@@ -902,7 +925,7 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -914,7 +937,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -924,7 +947,7 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -936,7 +959,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -946,7 +969,7 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -958,7 +981,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
@@ -968,7 +991,7 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -980,7 +1003,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
@@ -990,7 +1013,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1002,7 +1025,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
@@ -1012,7 +1035,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1025,15 +1048,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1052,7 +1075,7 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C25" ca="1" si="0">RANDBETWEEN(5,20)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1064,7 +1087,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,7 +1099,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1088,7 +1111,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1100,7 +1123,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1112,7 +1135,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1124,7 +1147,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1136,7 +1159,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1148,7 +1171,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1160,7 +1183,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1172,7 +1195,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1184,7 +1207,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1196,7 +1219,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,7 +1231,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1220,7 +1243,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1244,7 +1267,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,7 +1279,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1268,7 +1291,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1280,7 +1303,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,7 +1315,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,7 +1327,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1316,7 +1339,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1328,7 +1351,167 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1">
+        <f ca="1">RANDBETWEEN(5,20)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C6" ca="1" si="0">RANDBETWEEN(5,20)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <f ca="1">RANDBETWEEN(5,20)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C15" ca="1" si="1">RANDBETWEEN(5,20)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
